--- a/TabbedUI-Mockup.xlsx
+++ b/TabbedUI-Mockup.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mckaya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSchwartz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Source Unc</t>
   </si>
@@ -35,27 +35,6 @@
     <t>Taxonomy</t>
   </si>
   <si>
-    <t>Parameters</t>
-  </si>
-  <si>
-    <t>Volts</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>….</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Stop</t>
-  </si>
-  <si>
-    <t>Step</t>
-  </si>
-  <si>
     <t>Evalueate btn</t>
   </si>
   <si>
@@ -87,12 +66,57 @@
   </si>
   <si>
     <t>Select Taxon</t>
+  </si>
+  <si>
+    <t>Item2-From SoA</t>
+  </si>
+  <si>
+    <t>Item1-From SoA</t>
+  </si>
+  <si>
+    <t>&lt;Start&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Stop&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Step&gt;</t>
+  </si>
+  <si>
+    <t>Item 1</t>
+  </si>
+  <si>
+    <t>Item 2</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t>SourceUnc</t>
+  </si>
+  <si>
+    <t>SoAUnc</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>###</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>Pass if SourceUnc &gt; SoAUnc</t>
+  </si>
+  <si>
+    <t>&lt;----</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -286,7 +310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,6 +324,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -310,14 +336,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,14 +357,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,816 +658,703 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:AJ40"/>
+  <dimension ref="B1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" customWidth="1"/>
-    <col min="7" max="9" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="4.140625" customWidth="1"/>
-    <col min="16" max="18" width="10.7109375" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" customWidth="1"/>
-    <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" customWidth="1"/>
-    <col min="25" max="27" width="10.7109375" customWidth="1"/>
-    <col min="30" max="30" width="17.85546875" customWidth="1"/>
-    <col min="31" max="31" width="18" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" customWidth="1"/>
-    <col min="33" max="33" width="4.140625" customWidth="1"/>
-    <col min="34" max="36" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="8" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" customWidth="1"/>
+    <col min="15" max="17" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" customWidth="1"/>
+    <col min="23" max="23" width="4.140625" customWidth="1"/>
+    <col min="24" max="26" width="10.7109375" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="11" t="s">
+    <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="L2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="12" t="s">
+      <c r="E2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="K2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="27"/>
+      <c r="N2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="27"/>
+      <c r="T2" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="U2" s="11" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="27"/>
-      <c r="AD2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH2" s="29"/>
-    </row>
-    <row r="3" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="2"/>
+      <c r="W2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="29"/>
+    </row>
+    <row r="3" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="L3" s="2"/>
+      <c r="H3" s="4"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="4"/>
-      <c r="U3" s="2"/>
+      <c r="Q3" s="4"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="4"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="4"/>
-    </row>
-    <row r="4" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="5" t="s">
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="6"/>
+      <c r="K4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="6"/>
+      <c r="T4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="16"/>
+    </row>
+    <row r="5" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="6"/>
-      <c r="L4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="6"/>
-      <c r="U4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="V4" s="30"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="32"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="6"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="17"/>
-    </row>
-    <row r="5" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="5"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="6"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="6"/>
-      <c r="U5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="V5" s="30" t="s">
+      <c r="Q5" s="6"/>
+      <c r="T5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="31"/>
-      <c r="X5" s="32"/>
+      <c r="V5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" s="21"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="6"/>
-      <c r="AD5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="6"/>
-    </row>
-    <row r="6" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="10"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="L6" s="20" t="s">
-        <v>14</v>
-      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="6"/>
+      <c r="K6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="22"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="6"/>
-      <c r="AD6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="22"/>
-    </row>
-    <row r="7" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="5"/>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="L7" s="20"/>
+      <c r="Q6" s="22"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="16"/>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="22"/>
-      <c r="U7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="22"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="22"/>
-    </row>
-    <row r="8" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="6"/>
-      <c r="L8" s="20"/>
+      <c r="Q7" s="22"/>
+      <c r="T7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="16"/>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="22"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="22"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="22"/>
-    </row>
-    <row r="9" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="6"/>
-      <c r="L9" s="20"/>
+      <c r="Q8" s="22"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="16"/>
+    </row>
+    <row r="9" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="22"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="22"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="22"/>
-    </row>
-    <row r="10" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
-      <c r="D10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="6"/>
-      <c r="L10" s="20"/>
+      <c r="Q9" s="22"/>
+      <c r="T9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="16"/>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="22"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="22"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="22"/>
-    </row>
-    <row r="11" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="6"/>
-      <c r="L11" s="20"/>
+      <c r="Q10" s="22"/>
+      <c r="T10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y10" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z10" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="22"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="22"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="22"/>
-    </row>
-    <row r="12" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="6"/>
-      <c r="L12" s="20"/>
+      <c r="Q11" s="22"/>
+      <c r="T11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="22"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="22"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="22"/>
-    </row>
-    <row r="13" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="6"/>
-      <c r="L13" s="20"/>
+      <c r="Q12" s="22"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="16"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="22"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="22"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="22"/>
-    </row>
-    <row r="14" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="6"/>
-      <c r="L14" s="20"/>
+      <c r="Q13" s="22"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="16"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="22"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="22"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="22"/>
-    </row>
-    <row r="15" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="6"/>
-      <c r="L15" s="20"/>
+      <c r="Q14" s="22"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="16"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="22"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="22"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="22"/>
-    </row>
-    <row r="16" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="6"/>
-      <c r="L16" s="20"/>
+      <c r="Q15" s="22"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="16"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="22"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="22"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="22"/>
-    </row>
-    <row r="17" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="6"/>
+      <c r="Q16" s="22"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="16"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
       <c r="Q17" s="16"/>
-      <c r="R17" s="17"/>
+      <c r="T17" s="14"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
       <c r="Z17" s="16"/>
-      <c r="AA17" s="17"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="22"/>
-    </row>
-    <row r="18" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="6"/>
+    </row>
+    <row r="18" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
       <c r="Q18" s="16"/>
-      <c r="R18" s="17"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="17"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="22"/>
-    </row>
-    <row r="19" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="7"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="32"/>
+    </row>
+    <row r="19" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-      <c r="L19" s="7"/>
+      <c r="H19" s="9"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="9"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="9"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="25"/>
-    </row>
-    <row r="22" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="12" t="s">
+      <c r="Q19" s="9"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="32"/>
+    </row>
+    <row r="22" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="M23" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="2"/>
+    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="6"/>
-    </row>
-    <row r="26" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="L26" s="5"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="K26" s="5"/>
+      <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="6"/>
-    </row>
-    <row r="27" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="L27" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="K27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="21"/>
       <c r="M27" s="21"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="22"/>
-    </row>
-    <row r="28" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="L28" s="20"/>
+      <c r="Q27" s="22"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="K28" s="20"/>
+      <c r="L28" s="21"/>
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="22"/>
-    </row>
-    <row r="29" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="L29" s="20"/>
+      <c r="Q28" s="22"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="K29" s="20"/>
+      <c r="L29" s="21"/>
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="22"/>
-    </row>
-    <row r="30" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="L30" s="20"/>
+      <c r="Q29" s="22"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="K30" s="20"/>
+      <c r="L30" s="21"/>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="22"/>
-    </row>
-    <row r="31" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="L31" s="20"/>
+      <c r="Q30" s="22"/>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="K31" s="20"/>
+      <c r="L31" s="21"/>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="22"/>
-    </row>
-    <row r="32" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="L32" s="20"/>
+      <c r="Q31" s="22"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="K32" s="20"/>
+      <c r="L32" s="21"/>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="22"/>
-    </row>
-    <row r="33" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L33" s="20"/>
+      <c r="Q32" s="22"/>
+    </row>
+    <row r="33" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K33" s="20"/>
+      <c r="L33" s="21"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="22"/>
-    </row>
-    <row r="34" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L34" s="20"/>
+      <c r="Q33" s="22"/>
+    </row>
+    <row r="34" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K34" s="20"/>
+      <c r="L34" s="21"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="22"/>
-    </row>
-    <row r="35" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L35" s="20"/>
+      <c r="Q34" s="22"/>
+    </row>
+    <row r="35" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K35" s="20"/>
+      <c r="L35" s="21"/>
       <c r="M35" s="21"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="22"/>
-    </row>
-    <row r="36" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L36" s="20"/>
+      <c r="Q35" s="22"/>
+    </row>
+    <row r="36" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K36" s="20"/>
+      <c r="L36" s="21"/>
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="22"/>
-    </row>
-    <row r="37" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L37" s="20"/>
+      <c r="Q36" s="22"/>
+    </row>
+    <row r="37" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K37" s="20"/>
+      <c r="L37" s="21"/>
       <c r="M37" s="21"/>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="22"/>
-    </row>
-    <row r="38" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="Q37" s="22"/>
+    </row>
+    <row r="38" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K38" s="14"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
       <c r="Q38" s="16"/>
-      <c r="R38" s="17"/>
-    </row>
-    <row r="39" spans="12:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K39" s="14"/>
       <c r="L39" s="15"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
       <c r="Q39" s="16"/>
-      <c r="R39" s="17"/>
-    </row>
-    <row r="40" spans="12:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L40" s="7"/>
+    </row>
+    <row r="40" spans="11:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K40" s="7"/>
+      <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="9"/>
+      <c r="Q40" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="L27:R37"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="L6:R16"/>
-    <mergeCell ref="AD6:AJ19"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="U7:AA16"/>
+  <mergeCells count="10">
+    <mergeCell ref="K27:Q37"/>
+    <mergeCell ref="K6:Q16"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B7:H16"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
